--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redzer0\Desktop\iHotel\src\db\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -293,12 +293,19 @@
   </si>
   <si>
     <t>Generated</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>19-00-2020 10:00:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="K57" sqref="K57"/>
@@ -658,16 +665,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.49609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.15625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.25390625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.62109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.19140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.69140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2631,6 +2638,28 @@
         <v>90</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redzer0\Desktop\iHotel\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059FFEF3-EFD1-4715-B180-770621201ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1C1B8-2295-4952-8249-AF67D268ADA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="4215" windowWidth="19395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoomStock" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -293,19 +293,12 @@
   </si>
   <si>
     <t>Generated</t>
-  </si>
-  <si>
-    <t>2067</t>
-  </si>
-  <si>
-    <t>19-00-2020 10:00:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,8 +334,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,28 +651,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.49609375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.15625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.484375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.26171875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.25390625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.62109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.19140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.69140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.66796875" collapsed="true"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -710,7 +704,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -732,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -742,7 +736,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -763,6 +757,9 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -771,7 +768,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -793,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -803,7 +800,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -825,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -835,7 +832,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -857,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -867,7 +864,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7">
@@ -889,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -899,7 +896,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8">
@@ -920,6 +917,9 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
@@ -928,7 +928,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9">
@@ -949,6 +949,9 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
@@ -957,7 +960,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10">
@@ -978,6 +981,9 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
@@ -986,7 +992,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11">
@@ -1007,6 +1013,9 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
@@ -1015,7 +1024,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12">
@@ -1036,6 +1045,9 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +1056,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B13">
@@ -1065,6 +1077,9 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1088,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B14">
@@ -1094,6 +1109,9 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
       <c r="I14" t="s">
         <v>11</v>
       </c>
@@ -1102,7 +1120,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15">
@@ -1123,6 +1141,9 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
       <c r="I15" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1152,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16">
@@ -1152,6 +1173,9 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
       <c r="I16" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1184,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B17">
@@ -1181,6 +1205,9 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1216,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18">
@@ -1210,6 +1237,9 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
@@ -1218,7 +1248,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B19">
@@ -1239,6 +1269,9 @@
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1280,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B20">
@@ -1268,6 +1301,9 @@
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
@@ -1276,7 +1312,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21">
@@ -1297,6 +1333,9 @@
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +1344,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B22">
@@ -1326,6 +1365,9 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
       <c r="I22" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1376,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B23">
@@ -1355,6 +1397,9 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
       <c r="I23" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1408,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B24">
@@ -1384,6 +1429,9 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
       <c r="I24" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1440,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B25">
@@ -1413,6 +1461,9 @@
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
       <c r="I25" t="s">
         <v>11</v>
       </c>
@@ -1421,7 +1472,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B26">
@@ -1442,6 +1493,9 @@
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
       <c r="I26" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1504,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B27">
@@ -1471,6 +1525,9 @@
       <c r="G27">
         <v>1</v>
       </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
       <c r="I27" t="s">
         <v>11</v>
       </c>
@@ -1479,7 +1536,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B28">
@@ -1500,6 +1557,9 @@
       <c r="G28">
         <v>1</v>
       </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
       <c r="I28" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1568,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B29">
@@ -1529,6 +1589,9 @@
       <c r="G29">
         <v>1</v>
       </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
       <c r="I29" t="s">
         <v>11</v>
       </c>
@@ -1537,7 +1600,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30">
@@ -1558,6 +1621,9 @@
       <c r="G30">
         <v>1</v>
       </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1632,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B31">
@@ -1587,6 +1653,9 @@
       <c r="G31">
         <v>1</v>
       </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1664,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32">
@@ -1616,6 +1685,9 @@
       <c r="G32">
         <v>1</v>
       </c>
+      <c r="H32">
+        <v>1000</v>
+      </c>
       <c r="I32" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1696,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B33">
@@ -1645,6 +1717,9 @@
       <c r="G33">
         <v>1</v>
       </c>
+      <c r="H33">
+        <v>1000</v>
+      </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
@@ -1653,7 +1728,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B34">
@@ -1674,6 +1749,9 @@
       <c r="G34">
         <v>1</v>
       </c>
+      <c r="H34">
+        <v>1000</v>
+      </c>
       <c r="I34" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1760,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35">
@@ -1703,6 +1781,9 @@
       <c r="G35">
         <v>1</v>
       </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
       <c r="I35" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1792,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B36">
@@ -1732,6 +1813,9 @@
       <c r="G36">
         <v>1</v>
       </c>
+      <c r="H36">
+        <v>1000</v>
+      </c>
       <c r="I36" t="s">
         <v>11</v>
       </c>
@@ -1740,7 +1824,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37">
@@ -1761,6 +1845,9 @@
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>1000</v>
+      </c>
       <c r="I37" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1856,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B38">
@@ -1790,6 +1877,9 @@
       <c r="G38">
         <v>1</v>
       </c>
+      <c r="H38">
+        <v>1000</v>
+      </c>
       <c r="I38" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1888,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B39">
@@ -1819,6 +1909,9 @@
       <c r="G39">
         <v>1</v>
       </c>
+      <c r="H39">
+        <v>1000</v>
+      </c>
       <c r="I39" t="s">
         <v>11</v>
       </c>
@@ -1827,7 +1920,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B40">
@@ -1848,6 +1941,9 @@
       <c r="G40">
         <v>1</v>
       </c>
+      <c r="H40">
+        <v>1000</v>
+      </c>
       <c r="I40" t="s">
         <v>11</v>
       </c>
@@ -1856,7 +1952,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B41">
@@ -1877,6 +1973,9 @@
       <c r="G41">
         <v>1</v>
       </c>
+      <c r="H41">
+        <v>1000</v>
+      </c>
       <c r="I41" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +1984,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B42">
@@ -1906,6 +2005,9 @@
       <c r="G42">
         <v>1</v>
       </c>
+      <c r="H42">
+        <v>1000</v>
+      </c>
       <c r="I42" t="s">
         <v>11</v>
       </c>
@@ -1914,7 +2016,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B43">
@@ -1935,6 +2037,9 @@
       <c r="G43">
         <v>1</v>
       </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
       <c r="I43" t="s">
         <v>11</v>
       </c>
@@ -1943,7 +2048,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B44">
@@ -1964,6 +2069,9 @@
       <c r="G44">
         <v>1</v>
       </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
       <c r="I44" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +2080,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B45">
@@ -1993,6 +2101,9 @@
       <c r="G45">
         <v>1</v>
       </c>
+      <c r="H45">
+        <v>1000</v>
+      </c>
       <c r="I45" t="s">
         <v>11</v>
       </c>
@@ -2001,7 +2112,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B46">
@@ -2022,6 +2133,9 @@
       <c r="G46">
         <v>1</v>
       </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
       <c r="I46" t="s">
         <v>11</v>
       </c>
@@ -2030,7 +2144,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B47">
@@ -2051,6 +2165,9 @@
       <c r="G47">
         <v>1</v>
       </c>
+      <c r="H47">
+        <v>1000</v>
+      </c>
       <c r="I47" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2176,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B48">
@@ -2080,6 +2197,9 @@
       <c r="G48">
         <v>1</v>
       </c>
+      <c r="H48">
+        <v>1000</v>
+      </c>
       <c r="I48" t="s">
         <v>11</v>
       </c>
@@ -2088,7 +2208,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B49">
@@ -2109,6 +2229,9 @@
       <c r="G49">
         <v>1</v>
       </c>
+      <c r="H49">
+        <v>1000</v>
+      </c>
       <c r="I49" t="s">
         <v>11</v>
       </c>
@@ -2117,7 +2240,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B50">
@@ -2138,6 +2261,9 @@
       <c r="G50">
         <v>1</v>
       </c>
+      <c r="H50">
+        <v>1000</v>
+      </c>
       <c r="I50" t="s">
         <v>11</v>
       </c>
@@ -2146,7 +2272,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B51">
@@ -2167,6 +2293,9 @@
       <c r="G51">
         <v>1</v>
       </c>
+      <c r="H51">
+        <v>1000</v>
+      </c>
       <c r="I51" t="s">
         <v>11</v>
       </c>
@@ -2175,7 +2304,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B52">
@@ -2196,6 +2325,9 @@
       <c r="G52">
         <v>1</v>
       </c>
+      <c r="H52">
+        <v>1000</v>
+      </c>
       <c r="I52" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2336,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B53">
@@ -2225,6 +2357,9 @@
       <c r="G53">
         <v>1</v>
       </c>
+      <c r="H53">
+        <v>1000</v>
+      </c>
       <c r="I53" t="s">
         <v>11</v>
       </c>
@@ -2233,7 +2368,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B54">
@@ -2254,6 +2389,9 @@
       <c r="G54">
         <v>1</v>
       </c>
+      <c r="H54">
+        <v>1000</v>
+      </c>
       <c r="I54" t="s">
         <v>11</v>
       </c>
@@ -2262,7 +2400,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B55">
@@ -2283,6 +2421,9 @@
       <c r="G55">
         <v>1</v>
       </c>
+      <c r="H55">
+        <v>1000</v>
+      </c>
       <c r="I55" t="s">
         <v>11</v>
       </c>
@@ -2291,7 +2432,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B56">
@@ -2312,6 +2453,9 @@
       <c r="G56">
         <v>1</v>
       </c>
+      <c r="H56">
+        <v>1000</v>
+      </c>
       <c r="I56" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +2464,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B57">
@@ -2341,6 +2485,9 @@
       <c r="G57">
         <v>1</v>
       </c>
+      <c r="H57">
+        <v>1000</v>
+      </c>
       <c r="I57" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2496,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B58">
@@ -2370,6 +2517,9 @@
       <c r="G58">
         <v>1</v>
       </c>
+      <c r="H58">
+        <v>1000</v>
+      </c>
       <c r="I58" t="s">
         <v>11</v>
       </c>
@@ -2378,7 +2528,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B59">
@@ -2399,6 +2549,9 @@
       <c r="G59">
         <v>1</v>
       </c>
+      <c r="H59">
+        <v>1000</v>
+      </c>
       <c r="I59" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2560,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B60">
@@ -2428,6 +2581,9 @@
       <c r="G60">
         <v>1</v>
       </c>
+      <c r="H60">
+        <v>1000</v>
+      </c>
       <c r="I60" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2592,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B61">
@@ -2457,6 +2613,9 @@
       <c r="G61">
         <v>1</v>
       </c>
+      <c r="H61">
+        <v>1000</v>
+      </c>
       <c r="I61" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2624,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B62">
@@ -2486,6 +2645,9 @@
       <c r="G62">
         <v>1</v>
       </c>
+      <c r="H62">
+        <v>1000</v>
+      </c>
       <c r="I62" t="s">
         <v>11</v>
       </c>
@@ -2494,7 +2656,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B63">
@@ -2515,6 +2677,9 @@
       <c r="G63">
         <v>1</v>
       </c>
+      <c r="H63">
+        <v>1000</v>
+      </c>
       <c r="I63" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2688,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B64">
@@ -2544,6 +2709,9 @@
       <c r="G64">
         <v>1</v>
       </c>
+      <c r="H64">
+        <v>1000</v>
+      </c>
       <c r="I64" t="s">
         <v>11</v>
       </c>
@@ -2552,7 +2720,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B65">
@@ -2573,6 +2741,9 @@
       <c r="G65">
         <v>1</v>
       </c>
+      <c r="H65">
+        <v>1000</v>
+      </c>
       <c r="I65" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2752,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B66">
@@ -2602,6 +2773,9 @@
       <c r="G66">
         <v>1</v>
       </c>
+      <c r="H66">
+        <v>1000</v>
+      </c>
       <c r="I66" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2784,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B67">
@@ -2631,33 +2805,14 @@
       <c r="G67">
         <v>1</v>
       </c>
+      <c r="H67">
+        <v>1000</v>
+      </c>
       <c r="I67" t="s">
         <v>11</v>
       </c>
       <c r="J67" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>91</v>
-      </c>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redzer0\Desktop\iHotel\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1C1B8-2295-4952-8249-AF67D268ADA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E85EC-677A-42C3-9478-1218B8780EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="4215" windowWidth="19395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="2310" windowWidth="19395" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoomStock" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -293,12 +293,16 @@
   </si>
   <si>
     <t>Generated</t>
+  </si>
+  <si>
+    <t>Occupied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,31 +655,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -707,7 +715,7 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
@@ -726,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -739,7 +747,7 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
@@ -758,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -771,7 +779,7 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
@@ -790,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -803,7 +811,7 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
@@ -822,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -835,7 +843,7 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
@@ -854,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -867,7 +875,7 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
@@ -886,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -899,7 +907,7 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1007</v>
       </c>
       <c r="C8" t="s">
@@ -918,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -931,7 +939,7 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1008</v>
       </c>
       <c r="C9" t="s">
@@ -950,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -963,7 +971,7 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2001</v>
       </c>
       <c r="C10" t="s">
@@ -982,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -995,7 +1003,7 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2002</v>
       </c>
       <c r="C11" t="s">
@@ -1014,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1027,7 +1035,7 @@
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2003</v>
       </c>
       <c r="C12" t="s">
@@ -1046,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -1059,7 +1067,7 @@
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2004</v>
       </c>
       <c r="C13" t="s">
@@ -1078,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1091,7 +1099,7 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>2005</v>
       </c>
       <c r="C14" t="s">
@@ -1110,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1123,7 +1131,7 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>2006</v>
       </c>
       <c r="C15" t="s">
@@ -1142,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1155,7 +1163,7 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>2007</v>
       </c>
       <c r="C16" t="s">
@@ -1174,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -1187,7 +1195,7 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2008</v>
       </c>
       <c r="C17" t="s">
@@ -1206,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1000</v>
+        <v>3800</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1219,7 +1227,7 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3001</v>
       </c>
       <c r="C18" t="s">
@@ -1238,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1251,7 +1259,7 @@
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>3002</v>
       </c>
       <c r="C19" t="s">
@@ -1270,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1283,7 +1291,7 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>3003</v>
       </c>
       <c r="C20" t="s">
@@ -1302,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1315,7 +1323,7 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>3004</v>
       </c>
       <c r="C21" t="s">
@@ -1334,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1347,7 +1355,7 @@
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>3005</v>
       </c>
       <c r="C22" t="s">
@@ -1366,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1379,7 +1387,7 @@
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3006</v>
       </c>
       <c r="C23" t="s">
@@ -1398,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1411,7 +1419,7 @@
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>3007</v>
       </c>
       <c r="C24" t="s">
@@ -1430,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1443,7 +1451,7 @@
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>3008</v>
       </c>
       <c r="C25" t="s">
@@ -1462,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1475,7 +1483,7 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>4001</v>
       </c>
       <c r="C26" t="s">
@@ -1494,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1507,7 +1515,7 @@
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>4002</v>
       </c>
       <c r="C27" t="s">
@@ -1526,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1539,7 +1547,7 @@
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>4003</v>
       </c>
       <c r="C28" t="s">
@@ -1558,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1571,7 +1579,7 @@
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>4004</v>
       </c>
       <c r="C29" t="s">
@@ -1590,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1603,7 +1611,7 @@
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>4005</v>
       </c>
       <c r="C30" t="s">
@@ -1622,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1635,7 +1643,7 @@
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>4006</v>
       </c>
       <c r="C31" t="s">
@@ -1654,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1667,7 +1675,7 @@
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>4007</v>
       </c>
       <c r="C32" t="s">
@@ -1686,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1699,7 +1707,7 @@
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>4008</v>
       </c>
       <c r="C33" t="s">
@@ -1718,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -1731,7 +1739,7 @@
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>5001</v>
       </c>
       <c r="C34" t="s">
@@ -1750,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -1763,7 +1771,7 @@
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>5002</v>
       </c>
       <c r="C35" t="s">
@@ -1782,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -1795,7 +1803,7 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>5003</v>
       </c>
       <c r="C36" t="s">
@@ -1814,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1827,7 +1835,7 @@
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>5004</v>
       </c>
       <c r="C37" t="s">
@@ -1846,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -1859,7 +1867,7 @@
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>5005</v>
       </c>
       <c r="C38" t="s">
@@ -1878,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
@@ -1891,7 +1899,7 @@
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>5006</v>
       </c>
       <c r="C39" t="s">
@@ -1910,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -1923,7 +1931,7 @@
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>5007</v>
       </c>
       <c r="C40" t="s">
@@ -1942,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -1955,7 +1963,7 @@
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>5008</v>
       </c>
       <c r="C41" t="s">
@@ -1974,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1987,7 +1995,7 @@
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>6001</v>
       </c>
       <c r="C42" t="s">
@@ -2006,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -2019,7 +2027,7 @@
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>6002</v>
       </c>
       <c r="C43" t="s">
@@ -2038,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -2051,7 +2059,7 @@
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>6003</v>
       </c>
       <c r="C44" t="s">
@@ -2070,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I44" t="s">
         <v>11</v>
@@ -2083,7 +2091,7 @@
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>6004</v>
       </c>
       <c r="C45" t="s">
@@ -2102,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I45" t="s">
         <v>11</v>
@@ -2115,7 +2123,7 @@
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>6005</v>
       </c>
       <c r="C46" t="s">
@@ -2134,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I46" t="s">
         <v>11</v>
@@ -2147,7 +2155,7 @@
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>6006</v>
       </c>
       <c r="C47" t="s">
@@ -2166,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I47" t="s">
         <v>11</v>
@@ -2179,7 +2187,7 @@
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>6007</v>
       </c>
       <c r="C48" t="s">
@@ -2198,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I48" t="s">
         <v>11</v>
@@ -2211,7 +2219,7 @@
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>6008</v>
       </c>
       <c r="C49" t="s">
@@ -2230,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I49" t="s">
         <v>11</v>
@@ -2243,7 +2251,7 @@
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>7001</v>
       </c>
       <c r="C50" t="s">
@@ -2262,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I50" t="s">
         <v>11</v>
@@ -2275,7 +2283,7 @@
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>7002</v>
       </c>
       <c r="C51" t="s">
@@ -2294,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I51" t="s">
         <v>11</v>
@@ -2307,7 +2315,7 @@
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>7003</v>
       </c>
       <c r="C52" t="s">
@@ -2326,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I52" t="s">
         <v>11</v>
@@ -2339,7 +2347,7 @@
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>7004</v>
       </c>
       <c r="C53" t="s">
@@ -2358,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I53" t="s">
         <v>11</v>
@@ -2371,7 +2379,7 @@
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>7105</v>
       </c>
       <c r="C54" t="s">
@@ -2390,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I54" t="s">
         <v>11</v>
@@ -2403,7 +2411,7 @@
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>7106</v>
       </c>
       <c r="C55" t="s">
@@ -2422,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="I55" t="s">
         <v>11</v>
@@ -2435,7 +2443,7 @@
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>7207</v>
       </c>
       <c r="C56" t="s">
@@ -2454,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="I56" t="s">
         <v>11</v>
@@ -2467,7 +2475,7 @@
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>7208</v>
       </c>
       <c r="C57" t="s">
@@ -2486,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="I57" t="s">
         <v>11</v>
@@ -2499,7 +2507,7 @@
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>8001</v>
       </c>
       <c r="C58" t="s">
@@ -2518,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1000</v>
+        <v>6500</v>
       </c>
       <c r="I58" t="s">
         <v>11</v>
@@ -2531,7 +2539,7 @@
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>8002</v>
       </c>
       <c r="C59" t="s">
@@ -2550,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1000</v>
+        <v>6500</v>
       </c>
       <c r="I59" t="s">
         <v>11</v>
@@ -2563,7 +2571,7 @@
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>8003</v>
       </c>
       <c r="C60" t="s">
@@ -2582,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
@@ -2595,7 +2603,7 @@
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>8004</v>
       </c>
       <c r="C61" t="s">
@@ -2614,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="I61" t="s">
         <v>11</v>
@@ -2627,7 +2635,7 @@
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>8005</v>
       </c>
       <c r="C62" t="s">
@@ -2646,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="I62" t="s">
         <v>11</v>
@@ -2659,7 +2667,7 @@
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>8006</v>
       </c>
       <c r="C63" t="s">
@@ -2678,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="I63" t="s">
         <v>11</v>
@@ -2691,7 +2699,7 @@
       <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>9001</v>
       </c>
       <c r="C64" t="s">
@@ -2710,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="I64" t="s">
         <v>11</v>
@@ -2723,7 +2731,7 @@
       <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>9002</v>
       </c>
       <c r="C65" t="s">
@@ -2742,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="I65" t="s">
         <v>11</v>
@@ -2755,7 +2763,7 @@
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>9101</v>
       </c>
       <c r="C66" t="s">
@@ -2774,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="I66" t="s">
         <v>11</v>
@@ -2787,7 +2795,7 @@
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>9102</v>
       </c>
       <c r="C67" t="s">
@@ -2806,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="I67" t="s">
         <v>11</v>
@@ -2814,6 +2822,9 @@
       <c r="J67" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -769,7 +769,7 @@
         <v>2400</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
         <v>89</v>
@@ -801,7 +801,7 @@
         <v>2400</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -833,7 +833,7 @@
         <v>2400</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -865,7 +865,7 @@
         <v>2400</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -897,7 +897,7 @@
         <v>2400</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -929,7 +929,7 @@
         <v>3600</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
         <v>90</v>
@@ -961,7 +961,7 @@
         <v>3600</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
         <v>90</v>
@@ -993,7 +993,7 @@
         <v>2500</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
         <v>90</v>
@@ -1025,7 +1025,7 @@
         <v>2500</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
         <v>90</v>
@@ -1057,7 +1057,7 @@
         <v>2500</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
         <v>90</v>
@@ -1089,7 +1089,7 @@
         <v>2500</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
         <v>90</v>
@@ -1121,7 +1121,7 @@
         <v>2500</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
         <v>90</v>
@@ -1153,7 +1153,7 @@
         <v>2500</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
         <v>90</v>
@@ -1217,7 +1217,7 @@
         <v>3800</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>90</v>
@@ -1249,7 +1249,7 @@
         <v>2600</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -1537,7 +1537,7 @@
         <v>2800</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
         <v>90</v>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -1313,7 +1313,7 @@
         <v>2600</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
         <v>90</v>
@@ -1377,7 +1377,7 @@
         <v>3900</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
         <v>90</v>
@@ -1409,7 +1409,7 @@
         <v>3900</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
         <v>90</v>
@@ -1441,7 +1441,7 @@
         <v>3900</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
         <v>90</v>
@@ -1473,7 +1473,7 @@
         <v>3900</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
         <v>90</v>
@@ -1505,7 +1505,7 @@
         <v>2800</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
         <v>90</v>
@@ -1601,7 +1601,7 @@
         <v>4000</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
         <v>90</v>
@@ -1633,7 +1633,7 @@
         <v>4000</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
         <v>90</v>
@@ -1665,7 +1665,7 @@
         <v>4000</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
         <v>90</v>
@@ -1729,7 +1729,7 @@
         <v>4000</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s">
         <v>90</v>
@@ -1793,7 +1793,7 @@
         <v>4000</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
         <v>90</v>
@@ -1825,7 +1825,7 @@
         <v>4000</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s">
         <v>90</v>
@@ -1857,7 +1857,7 @@
         <v>4000</v>
       </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
         <v>90</v>
@@ -1921,7 +1921,7 @@
         <v>4000</v>
       </c>
       <c r="I39" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s">
         <v>90</v>
@@ -1985,7 +1985,7 @@
         <v>4000</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s">
         <v>90</v>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -62,10 +62,16 @@
     <t>19-25-2020 09:25:45</t>
   </si>
   <si>
+    <t>Occupied</t>
+  </si>
+  <si>
     <t>19-26-2020 09:26:02</t>
   </si>
   <si>
-    <t>Occupied</t>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>Premiun</t>
   </si>
   <si>
     <t>19-26-2020 09:26:24</t>
@@ -74,22 +80,16 @@
     <t>19-26-2020 09:26:26</t>
   </si>
   <si>
-    <t>19-26-2020 09:26:28</t>
-  </si>
-  <si>
     <t>Delux</t>
   </si>
   <si>
-    <t>Generated</t>
-  </si>
-  <si>
     <t>Junior Suite</t>
   </si>
   <si>
+    <t>Premium</t>
+  </si>
+  <si>
     <t>Royal Suite</t>
-  </si>
-  <si>
-    <t>Premium</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,7 +195,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2400.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -227,7 +227,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2450.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -262,18 +262,18 @@
         <v>2400.0</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2004.0</v>
+        <v>2009.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1004.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -285,16 +285,16 @@
         <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -302,10 +302,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2005.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1005.0</v>
+        <v>2003.0</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -317,27 +317,27 @@
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2006.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1006.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -349,30 +349,30 @@
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2007.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1007.0</v>
+        <v>3001.0</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -381,30 +381,30 @@
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>3600.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2008.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1008.0</v>
+        <v>3002.0</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -413,27 +413,27 @@
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>3600.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2009.0</v>
+        <v>2020.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2001.0</v>
+        <v>3004.0</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -445,27 +445,27 @@
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2500.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2010.0</v>
+        <v>2025.0</v>
       </c>
       <c r="B11" t="n">
-        <v>2002.0</v>
+        <v>4001.0</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -477,27 +477,27 @@
         <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2500.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2011.0</v>
+        <v>2026.0</v>
       </c>
       <c r="B12" t="n">
-        <v>2003.0</v>
+        <v>4002.0</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -509,94 +509,94 @@
         <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2500.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2012.0</v>
+        <v>2004.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2004.0</v>
+        <v>1004.0</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2013.0</v>
+        <v>2005.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2005.0</v>
+        <v>1005.0</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>1.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2014.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2006.0</v>
+        <v>1007.0</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -605,30 +605,30 @@
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2500.0</v>
+        <v>3600.0</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2015.0</v>
+        <v>2008.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2007.0</v>
+        <v>1008.0</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -637,30 +637,30 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
       </c>
       <c r="H16" t="n">
-        <v>3800.0</v>
+        <v>3600.0</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2008.0</v>
+        <v>2007.0</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -678,21 +678,21 @@
         <v>3800.0</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B18" t="n">
-        <v>3001.0</v>
+        <v>3006.0</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -707,24 +707,24 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="n">
-        <v>2600.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3002.0</v>
+        <v>3007.0</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -739,24 +739,24 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>2600.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2019.0</v>
+        <v>2024.0</v>
       </c>
       <c r="B20" t="n">
-        <v>3003.0</v>
+        <v>3008.0</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -771,24 +771,24 @@
         <v>1.0</v>
       </c>
       <c r="H20" t="n">
-        <v>2600.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2020.0</v>
+        <v>2027.0</v>
       </c>
       <c r="B21" t="n">
-        <v>3004.0</v>
+        <v>4003.0</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -797,30 +797,30 @@
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="n">
-        <v>2600.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2021.0</v>
+        <v>2028.0</v>
       </c>
       <c r="B22" t="n">
-        <v>3005.0</v>
+        <v>4004.0</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -829,30 +829,30 @@
         <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="n">
-        <v>3900.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2022.0</v>
+        <v>2029.0</v>
       </c>
       <c r="B23" t="n">
-        <v>3006.0</v>
+        <v>4005.0</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -861,30 +861,30 @@
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G23" t="n">
         <v>1.0</v>
       </c>
       <c r="H23" t="n">
-        <v>3900.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2023.0</v>
+        <v>2030.0</v>
       </c>
       <c r="B24" t="n">
-        <v>3007.0</v>
+        <v>4006.0</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -893,30 +893,30 @@
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="n">
-        <v>3900.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2024.0</v>
+        <v>2031.0</v>
       </c>
       <c r="B25" t="n">
-        <v>3008.0</v>
+        <v>4007.0</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -925,30 +925,30 @@
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="n">
-        <v>3900.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2025.0</v>
+        <v>2032.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4001.0</v>
+        <v>4008.0</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -963,24 +963,24 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="n">
-        <v>2800.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2026.0</v>
+        <v>2033.0</v>
       </c>
       <c r="B27" t="n">
-        <v>4002.0</v>
+        <v>5001.0</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -989,30 +989,30 @@
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G27" t="n">
         <v>1.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2800.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2027.0</v>
+        <v>2034.0</v>
       </c>
       <c r="B28" t="n">
-        <v>4003.0</v>
+        <v>5002.0</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
@@ -1030,21 +1030,21 @@
         <v>4000.0</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2028.0</v>
+        <v>2035.0</v>
       </c>
       <c r="B29" t="n">
-        <v>4004.0</v>
+        <v>5003.0</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G29" t="n">
         <v>1.0</v>
@@ -1062,21 +1062,21 @@
         <v>4000.0</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2029.0</v>
+        <v>2036.0</v>
       </c>
       <c r="B30" t="n">
-        <v>4005.0</v>
+        <v>5004.0</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1085,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G30" t="n">
         <v>1.0</v>
@@ -1094,21 +1094,21 @@
         <v>4000.0</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2030.0</v>
+        <v>2037.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4006.0</v>
+        <v>5005.0</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1117,7 +1117,7 @@
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G31" t="n">
         <v>1.0</v>
@@ -1126,21 +1126,21 @@
         <v>4000.0</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2031.0</v>
+        <v>2038.0</v>
       </c>
       <c r="B32" t="n">
-        <v>4007.0</v>
+        <v>5006.0</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1149,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G32" t="n">
         <v>1.0</v>
@@ -1158,21 +1158,21 @@
         <v>4000.0</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2032.0</v>
+        <v>2039.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4008.0</v>
+        <v>5007.0</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1181,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G33" t="n">
         <v>1.0</v>
@@ -1190,21 +1190,21 @@
         <v>4000.0</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2033.0</v>
+        <v>2040.0</v>
       </c>
       <c r="B34" t="n">
-        <v>5001.0</v>
+        <v>5008.0</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1222,21 +1222,21 @@
         <v>4000.0</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2034.0</v>
+        <v>2041.0</v>
       </c>
       <c r="B35" t="n">
-        <v>5002.0</v>
+        <v>6001.0</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1245,30 +1245,30 @@
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
       </c>
       <c r="H35" t="n">
-        <v>4000.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2035.0</v>
+        <v>2042.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5003.0</v>
+        <v>6002.0</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -1277,30 +1277,30 @@
         <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G36" t="n">
         <v>1.0</v>
       </c>
       <c r="H36" t="n">
-        <v>4000.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2036.0</v>
+        <v>2043.0</v>
       </c>
       <c r="B37" t="n">
-        <v>5004.0</v>
+        <v>6003.0</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1309,30 +1309,30 @@
         <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="n">
-        <v>4000.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2037.0</v>
+        <v>2044.0</v>
       </c>
       <c r="B38" t="n">
-        <v>5005.0</v>
+        <v>6004.0</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1341,30 +1341,30 @@
         <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G38" t="n">
         <v>1.0</v>
       </c>
       <c r="H38" t="n">
-        <v>4000.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2038.0</v>
+        <v>2045.0</v>
       </c>
       <c r="B39" t="n">
-        <v>5006.0</v>
+        <v>6005.0</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1373,30 +1373,30 @@
         <v>12</v>
       </c>
       <c r="F39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G39" t="n">
         <v>1.0</v>
       </c>
       <c r="H39" t="n">
-        <v>4000.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2039.0</v>
+        <v>2046.0</v>
       </c>
       <c r="B40" t="n">
-        <v>5007.0</v>
+        <v>6006.0</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -1405,30 +1405,30 @@
         <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
       </c>
       <c r="H40" t="n">
-        <v>4000.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2040.0</v>
+        <v>2047.0</v>
       </c>
       <c r="B41" t="n">
-        <v>5008.0</v>
+        <v>6007.0</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -1437,30 +1437,30 @@
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G41" t="n">
         <v>1.0</v>
       </c>
       <c r="H41" t="n">
-        <v>4000.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2041.0</v>
+        <v>2048.0</v>
       </c>
       <c r="B42" t="n">
-        <v>6001.0</v>
+        <v>6008.0</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -1481,18 +1481,18 @@
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2042.0</v>
+        <v>2049.0</v>
       </c>
       <c r="B43" t="n">
-        <v>6002.0</v>
+        <v>7001.0</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -1501,30 +1501,30 @@
         <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G43" t="n">
         <v>1.0</v>
       </c>
       <c r="H43" t="n">
-        <v>4500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2043.0</v>
+        <v>2050.0</v>
       </c>
       <c r="B44" t="n">
-        <v>6003.0</v>
+        <v>7002.0</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -1533,30 +1533,30 @@
         <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
       </c>
       <c r="H44" t="n">
-        <v>4500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2044.0</v>
+        <v>2051.0</v>
       </c>
       <c r="B45" t="n">
-        <v>6004.0</v>
+        <v>7003.0</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -1565,30 +1565,30 @@
         <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G45" t="n">
         <v>1.0</v>
       </c>
       <c r="H45" t="n">
-        <v>4500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2045.0</v>
+        <v>2052.0</v>
       </c>
       <c r="B46" t="n">
-        <v>6005.0</v>
+        <v>7004.0</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -1597,30 +1597,30 @@
         <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" t="n">
         <v>1.0</v>
       </c>
       <c r="H46" t="n">
-        <v>4500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2046.0</v>
+        <v>2053.0</v>
       </c>
       <c r="B47" t="n">
-        <v>6006.0</v>
+        <v>7105.0</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -1629,30 +1629,30 @@
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G47" t="n">
         <v>1.0</v>
       </c>
       <c r="H47" t="n">
-        <v>4500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2047.0</v>
+        <v>2054.0</v>
       </c>
       <c r="B48" t="n">
-        <v>6007.0</v>
+        <v>7106.0</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -1661,222 +1661,222 @@
         <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G48" t="n">
         <v>1.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2048.0</v>
+        <v>2057.0</v>
       </c>
       <c r="B49" t="n">
-        <v>6008.0</v>
+        <v>8001.0</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4500.0</v>
+        <v>6500.0</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2049.0</v>
+        <v>2058.0</v>
       </c>
       <c r="B50" t="n">
-        <v>7001.0</v>
+        <v>8002.0</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G50" t="n">
         <v>1.0</v>
       </c>
       <c r="H50" t="n">
-        <v>6000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2050.0</v>
+        <v>2059.0</v>
       </c>
       <c r="B51" t="n">
-        <v>7002.0</v>
+        <v>8003.0</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
       </c>
       <c r="H51" t="n">
-        <v>6000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2051.0</v>
+        <v>2060.0</v>
       </c>
       <c r="B52" t="n">
-        <v>7003.0</v>
+        <v>8004.0</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G52" t="n">
         <v>1.0</v>
       </c>
       <c r="H52" t="n">
-        <v>6000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2052.0</v>
+        <v>2061.0</v>
       </c>
       <c r="B53" t="n">
-        <v>7004.0</v>
+        <v>8005.0</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G53" t="n">
         <v>1.0</v>
       </c>
       <c r="H53" t="n">
-        <v>6000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2053.0</v>
+        <v>2062.0</v>
       </c>
       <c r="B54" t="n">
-        <v>7105.0</v>
+        <v>8006.0</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G54" t="n">
         <v>1.0</v>
       </c>
       <c r="H54" t="n">
-        <v>6000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2054.0</v>
+        <v>2055.0</v>
       </c>
       <c r="B55" t="n">
-        <v>7106.0</v>
+        <v>7207.0</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -1891,333 +1891,13 @@
         <v>1.0</v>
       </c>
       <c r="H55" t="n">
-        <v>6000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2055.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>7207.0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2056.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>7208.0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2057.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>8001.0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>6500.0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2058.0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>8002.0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6500.0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2059.0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>8003.0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>7500.0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>13</v>
-      </c>
-      <c r="J60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2060.0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>8004.0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7500.0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2061.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>8005.0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7500.0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2062.0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>8006.0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>7500.0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2063.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>9001.0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2064.0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>9002.0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -62,9 +62,6 @@
     <t>19-25-2020 09:25:45</t>
   </si>
   <si>
-    <t>Occupied</t>
-  </si>
-  <si>
     <t>19-26-2020 09:26:02</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>Premium</t>
-  </si>
-  <si>
-    <t>Royal Suite</t>
   </si>
 </sst>
 </file>
@@ -134,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -262,10 +256,10 @@
         <v>2400.0</v>
       </c>
       <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -294,10 +288,10 @@
         <v>2500.0</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -326,10 +320,10 @@
         <v>2500.0</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -358,10 +352,10 @@
         <v>2500.0</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -390,10 +384,10 @@
         <v>2600.0</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -425,7 +419,7 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +451,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +480,10 @@
         <v>2800.0</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -518,10 +512,10 @@
         <v>2800.0</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -535,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -550,10 +544,10 @@
         <v>3500.0</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -582,10 +576,10 @@
         <v>3500.0</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +590,7 @@
         <v>1007.0</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -614,10 +608,10 @@
         <v>3600.0</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -628,7 +622,7 @@
         <v>1008.0</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -646,10 +640,10 @@
         <v>3600.0</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -660,7 +654,7 @@
         <v>2007.0</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -681,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -692,7 +686,7 @@
         <v>3006.0</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -710,10 +704,10 @@
         <v>3900.0</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -724,7 +718,7 @@
         <v>3007.0</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -742,10 +736,10 @@
         <v>3900.0</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +750,7 @@
         <v>3008.0</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -774,10 +768,10 @@
         <v>3900.0</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +782,7 @@
         <v>4003.0</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -806,10 +800,10 @@
         <v>4000.0</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -820,7 +814,7 @@
         <v>4004.0</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -838,10 +832,10 @@
         <v>4000.0</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -852,7 +846,7 @@
         <v>4005.0</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -870,10 +864,10 @@
         <v>4000.0</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -884,7 +878,7 @@
         <v>4006.0</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -902,10 +896,10 @@
         <v>4000.0</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -916,7 +910,7 @@
         <v>4007.0</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -937,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -948,7 +942,7 @@
         <v>4008.0</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -966,10 +960,10 @@
         <v>4000.0</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -980,7 +974,7 @@
         <v>5001.0</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1001,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1012,7 +1006,7 @@
         <v>5002.0</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -1030,10 +1024,10 @@
         <v>4000.0</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1044,7 +1038,7 @@
         <v>5003.0</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1062,10 +1056,10 @@
         <v>4000.0</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1076,7 +1070,7 @@
         <v>5004.0</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1094,10 +1088,10 @@
         <v>4000.0</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1108,7 +1102,7 @@
         <v>5005.0</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1129,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1140,7 +1134,7 @@
         <v>5006.0</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1158,10 +1152,10 @@
         <v>4000.0</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1172,7 +1166,7 @@
         <v>5007.0</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1193,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1204,7 +1198,7 @@
         <v>5008.0</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1222,10 +1216,10 @@
         <v>4000.0</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1257,7 +1251,7 @@
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1289,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -1300,7 +1294,7 @@
         <v>6003.0</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1321,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -1332,7 +1326,7 @@
         <v>6004.0</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1353,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -1364,7 +1358,7 @@
         <v>6005.0</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -1385,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1396,7 +1390,7 @@
         <v>6006.0</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -1417,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -1428,7 +1422,7 @@
         <v>6007.0</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -1449,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1460,7 +1454,7 @@
         <v>6008.0</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -1481,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1492,7 +1486,7 @@
         <v>7001.0</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -1513,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1524,7 +1518,7 @@
         <v>7002.0</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -1545,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1556,7 +1550,7 @@
         <v>7003.0</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -1577,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -1588,7 +1582,7 @@
         <v>7004.0</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -1609,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1620,7 +1614,7 @@
         <v>7105.0</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -1641,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -1652,7 +1646,7 @@
         <v>7106.0</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -1673,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -1684,10 +1678,10 @@
         <v>8001.0</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -1705,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -1716,10 +1710,10 @@
         <v>8002.0</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -1737,7 +1731,7 @@
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -1748,10 +1742,10 @@
         <v>8003.0</v>
       </c>
       <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
         <v>23</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -1769,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -1780,10 +1774,10 @@
         <v>8004.0</v>
       </c>
       <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
         <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -1801,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -1812,10 +1806,10 @@
         <v>8005.0</v>
       </c>
       <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
         <v>23</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -1833,7 +1827,7 @@
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -1844,10 +1838,10 @@
         <v>8006.0</v>
       </c>
       <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
         <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -1865,39 +1859,7 @@
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2055.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>7207.0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>Premium</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:28:54</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:30:52</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:31:01</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:33:59</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:34:24</t>
+  </si>
+  <si>
+    <t>24-04-2020 03:35:03</t>
   </si>
 </sst>
 </file>
@@ -128,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1800,66 +1818,194 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2061.0</v>
+        <v>2052.0</v>
       </c>
       <c r="B53" t="n">
-        <v>8005.0</v>
+        <v>1200.0</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="n">
         <v>1.0</v>
       </c>
       <c r="H53" t="n">
-        <v>7500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2062.0</v>
+        <v>2053.0</v>
       </c>
       <c r="B54" t="n">
-        <v>8006.0</v>
+        <v>1200.0</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G54" t="n">
         <v>1.0</v>
       </c>
       <c r="H54" t="n">
-        <v>7500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2054.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2055.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2056.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2057.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9999.0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -47,18 +47,21 @@
     <t>Superior</t>
   </si>
   <si>
+    <t>Premiun</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Unoccupied</t>
+  </si>
+  <si>
+    <t>19-25-2020 09:25:44</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Unoccupied</t>
-  </si>
-  <si>
-    <t>19-25-2020 09:25:44</t>
-  </si>
-  <si>
     <t>19-25-2020 09:25:45</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
     <t>Generated</t>
   </si>
   <si>
-    <t>Premiun</t>
-  </si>
-  <si>
     <t>19-26-2020 09:26:24</t>
   </si>
   <si>
@@ -101,7 +101,7 @@
     <t>24-04-2020 03:34:24</t>
   </si>
   <si>
-    <t>24-04-2020 03:35:03</t>
+    <t>24-04-2020 11:33:14</t>
   </si>
 </sst>
 </file>
@@ -207,7 +207,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -227,7 +227,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -245,7 +245,7 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -259,7 +259,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -277,7 +277,7 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -291,7 +291,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -309,7 +309,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -323,7 +323,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -341,7 +341,7 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -355,7 +355,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -373,7 +373,7 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -387,7 +387,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -405,7 +405,7 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -419,7 +419,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -437,7 +437,7 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -451,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -469,7 +469,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -533,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -547,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -643,7 +643,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +675,7 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -693,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -739,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -771,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -789,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -803,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -821,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -835,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -853,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -867,7 +867,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -931,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -949,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -963,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -981,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -995,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1027,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1045,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1059,7 +1059,7 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1123,7 +1123,7 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -1141,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1155,7 +1155,7 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -1173,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1187,7 +1187,7 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -1237,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1251,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1269,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1301,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -1315,7 +1315,7 @@
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1333,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1347,7 +1347,7 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -1365,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -1379,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -1397,7 +1397,7 @@
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -1429,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1443,7 +1443,7 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -1461,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -1475,7 +1475,7 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -1493,7 +1493,7 @@
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1539,7 +1539,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -1557,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1571,7 +1571,7 @@
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -1589,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1603,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -1621,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1635,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -1653,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -1667,7 +1667,7 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -1685,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1717,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -1749,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1781,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1813,7 +1813,7 @@
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -1827,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -1891,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -1923,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -1955,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -1981,13 +1981,13 @@
         <v>2057.0</v>
       </c>
       <c r="B58" t="n">
-        <v>9999.0</v>
+        <v>20025.0</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -1999,7 +1999,7 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="n">
-        <v>9999.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -44,21 +44,24 @@
     <t>Data Created</t>
   </si>
   <si>
+    <t>Delux</t>
+  </si>
+  <si>
+    <t>Premiun</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Unoccupied</t>
+  </si>
+  <si>
+    <t>19-25-2020 09:25:44</t>
+  </si>
+  <si>
     <t>Superior</t>
   </si>
   <si>
-    <t>Premiun</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Unoccupied</t>
-  </si>
-  <si>
-    <t>19-25-2020 09:25:44</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
     <t>19-26-2020 09:26:26</t>
   </si>
   <si>
-    <t>Delux</t>
-  </si>
-  <si>
     <t>Junior Suite</t>
   </si>
   <si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>24-04-2020 03:34:24</t>
-  </si>
-  <si>
-    <t>24-04-2020 11:33:14</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,13 +198,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2500.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -224,10 +221,10 @@
         <v>1002.0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -245,7 +242,7 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -256,10 +253,10 @@
         <v>1003.0</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -277,7 +274,7 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -288,10 +285,10 @@
         <v>2001.0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -309,7 +306,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -320,10 +317,10 @@
         <v>2003.0</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -341,7 +338,7 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -352,10 +349,10 @@
         <v>2005.0</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -373,7 +370,7 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -384,10 +381,10 @@
         <v>3001.0</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -405,7 +402,7 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -416,10 +413,10 @@
         <v>3002.0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -437,7 +434,7 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -448,10 +445,10 @@
         <v>3004.0</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -469,7 +466,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -480,10 +477,10 @@
         <v>4001.0</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -501,7 +498,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -512,10 +509,10 @@
         <v>4002.0</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -533,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +541,7 @@
         <v>1004.0</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -565,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -576,7 +573,7 @@
         <v>1005.0</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -597,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -608,10 +605,10 @@
         <v>1007.0</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -629,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -640,10 +637,10 @@
         <v>1008.0</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -661,7 +658,7 @@
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -672,10 +669,10 @@
         <v>2007.0</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -693,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -704,10 +701,10 @@
         <v>3006.0</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -725,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -736,10 +733,10 @@
         <v>3007.0</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -757,7 +754,7 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -768,10 +765,10 @@
         <v>3008.0</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -789,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -800,10 +797,10 @@
         <v>4003.0</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -821,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -832,10 +829,10 @@
         <v>4004.0</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -853,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -864,10 +861,10 @@
         <v>4005.0</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -885,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -896,10 +893,10 @@
         <v>4006.0</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -917,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -928,10 +925,10 @@
         <v>4007.0</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -949,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -960,10 +957,10 @@
         <v>4008.0</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -981,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -992,10 +989,10 @@
         <v>5001.0</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1013,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1024,10 +1021,10 @@
         <v>5002.0</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1045,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1056,10 +1053,10 @@
         <v>5003.0</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1077,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1088,10 +1085,10 @@
         <v>5004.0</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1109,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1120,10 +1117,10 @@
         <v>5005.0</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -1141,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1152,10 +1149,10 @@
         <v>5006.0</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -1173,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -1184,10 +1181,10 @@
         <v>5007.0</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1205,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1216,10 +1213,10 @@
         <v>5008.0</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -1237,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -1248,10 +1245,10 @@
         <v>6001.0</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1269,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1280,10 +1277,10 @@
         <v>6002.0</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1301,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -1312,10 +1309,10 @@
         <v>6003.0</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -1333,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1344,10 +1341,10 @@
         <v>6004.0</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -1365,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1376,10 +1373,10 @@
         <v>6005.0</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -1397,7 +1394,7 @@
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -1408,10 +1405,10 @@
         <v>6006.0</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -1429,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -1440,10 +1437,10 @@
         <v>6007.0</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -1461,7 +1458,7 @@
         <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -1472,10 +1469,10 @@
         <v>6008.0</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -1493,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -1525,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1539,7 +1536,7 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -1557,21 +1554,21 @@
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2051.0</v>
+        <v>2052.0</v>
       </c>
       <c r="B45" t="n">
-        <v>7003.0</v>
+        <v>7004.0</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -1589,21 +1586,21 @@
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2052.0</v>
+        <v>2054.0</v>
       </c>
       <c r="B46" t="n">
-        <v>7004.0</v>
+        <v>7106.0</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -1621,82 +1618,82 @@
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2053.0</v>
+        <v>2057.0</v>
       </c>
       <c r="B47" t="n">
-        <v>7105.0</v>
+        <v>8001.0</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G47" t="n">
         <v>1.0</v>
       </c>
       <c r="H47" t="n">
-        <v>6000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2054.0</v>
+        <v>2059.0</v>
       </c>
       <c r="B48" t="n">
-        <v>7106.0</v>
+        <v>8003.0</v>
       </c>
       <c r="C48" t="s">
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G48" t="n">
         <v>1.0</v>
       </c>
       <c r="H48" t="n">
-        <v>6000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2057.0</v>
+        <v>2060.0</v>
       </c>
       <c r="B49" t="n">
-        <v>8001.0</v>
+        <v>8004.0</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1711,123 +1708,123 @@
         <v>1.0</v>
       </c>
       <c r="H49" t="n">
-        <v>6500.0</v>
+        <v>7500.0</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2058.0</v>
+        <v>2052.0</v>
       </c>
       <c r="B50" t="n">
-        <v>8002.0</v>
+        <v>1200.0</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G50" t="n">
         <v>1.0</v>
       </c>
       <c r="H50" t="n">
-        <v>6500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2059.0</v>
+        <v>2053.0</v>
       </c>
       <c r="B51" t="n">
-        <v>8003.0</v>
+        <v>1200.0</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
       </c>
       <c r="H51" t="n">
-        <v>7500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2060.0</v>
+        <v>2054.0</v>
       </c>
       <c r="B52" t="n">
-        <v>8004.0</v>
+        <v>1300.0</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G52" t="n">
         <v>1.0</v>
       </c>
       <c r="H52" t="n">
-        <v>7500.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2052.0</v>
+        <v>2055.0</v>
       </c>
       <c r="B53" t="n">
-        <v>1200.0</v>
+        <v>1102.0</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -1839,27 +1836,27 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="n">
-        <v>1200.0</v>
+        <v>1102.0</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2053.0</v>
+        <v>2056.0</v>
       </c>
       <c r="B54" t="n">
-        <v>1200.0</v>
+        <v>9999.0</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -1871,141 +1868,13 @@
         <v>1.0</v>
       </c>
       <c r="H54" t="n">
-        <v>1200.0</v>
+        <v>9999.0</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2054.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1300.0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1300.0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2055.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1102.0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1102.0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2056.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>9999.0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9999.0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2057.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>20025.0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2500.0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/build/classes/db/RoomStock.xlsx
+++ b/build/classes/db/RoomStock.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>24-04-2020 03:34:24</t>
+  </si>
+  <si>
+    <t>Occupied</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
